--- a/Luban/Datas/Zerg/building.xlsx
+++ b/Luban/Datas/Zerg/building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>##</t>
   </si>
@@ -152,9 +152,6 @@
     <t>采集塔红</t>
   </si>
   <si>
-    <t>Mineral</t>
-  </si>
-  <si>
     <t>BD000004</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>采集塔绿</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>BD000007</t>
@@ -205,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -229,6 +223,21 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -239,8 +248,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +287,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -263,24 +327,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,31 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -324,31 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +569,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,56 +664,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -678,7 +672,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,130 +690,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1156,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1486,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -1529,10 +1523,10 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1611,10 +1605,10 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1693,10 +1687,10 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1731,8 +1725,8 @@
       <c r="N18" s="3">
         <v>3</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>52</v>
+      <c r="O18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -1777,10 +1771,10 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>36</v>
@@ -1859,10 +1853,10 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>36</v>
@@ -1897,8 +1891,8 @@
       <c r="N24" s="3">
         <v>3</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>52</v>
+      <c r="O24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -1943,10 +1937,10 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>36</v>
@@ -2025,10 +2019,10 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>36</v>

--- a/Luban/Datas/Zerg/building.xlsx
+++ b/Luban/Datas/Zerg/building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14250"/>
+    <workbookView windowWidth="24225" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>##</t>
   </si>
@@ -70,8 +70,8 @@
     <t>float</t>
   </si>
   <si>
-    <t>map,int,string
-string</t>
+    <t xml:space="preserve">map,int,string
+</t>
   </si>
   <si>
     <t>GroundType</t>
@@ -89,16 +89,16 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>基础卡牌类型</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>表用名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>占地尺寸</t>
+  </si>
+  <si>
+    <t>视野</t>
   </si>
   <si>
     <t>生命</t>
@@ -200,9 +200,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -227,6 +227,121 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,92 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -333,41 +362,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,13 +378,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,151 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,37 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,7 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,21 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -669,10 +634,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,140 +690,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1156,7 +1159,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N4" sqref="B4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1194,20 +1197,20 @@
         <v>5</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O1" t="s">
@@ -1241,7 +1244,7 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
@@ -1250,7 +1253,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1270,8 +1273,8 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="O3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1286,16 +1289,10 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="s">
@@ -1304,7 +1301,7 @@
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M4" t="s">
@@ -1318,83 +1315,83 @@
       </c>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>1000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>40</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>3</v>
       </c>
       <c r="O6" t="s">
@@ -1402,81 +1399,81 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>4</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
       <c r="O9" t="s">
@@ -1484,81 +1481,81 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <v>4</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="4">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>3</v>
       </c>
       <c r="O12" t="s">
@@ -1566,81 +1563,81 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>4</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>2</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="4">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <v>3</v>
       </c>
       <c r="O15" t="s">
@@ -1648,81 +1645,81 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <v>4</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <v>2</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <v>3</v>
       </c>
       <c r="O18" t="s">
@@ -1730,83 +1727,83 @@
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <v>4</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="4">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <v>3</v>
       </c>
       <c r="O21" t="s">
@@ -1814,81 +1811,81 @@
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>4</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <v>2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <v>2</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="4">
         <v>3</v>
       </c>
       <c r="O24" t="s">
@@ -1896,83 +1893,83 @@
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <v>4</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <v>2</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4">
         <v>3</v>
       </c>
       <c r="O27" t="s">
@@ -1980,81 +1977,81 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>3</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <v>3</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
         <v>4</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
         <v>100</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <v>2</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>2</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="4">
         <v>4</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="4">
         <v>3</v>
       </c>
       <c r="O30" t="s">
@@ -2062,29 +2059,31 @@
       </c>
     </row>
     <row r="31" spans="11:12">
-      <c r="K31" s="3">
-        <v>3</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="11:12">
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>4</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
